--- a/New folder/KL VẬT TƯ CHÍNH VÀ PHỤ HIỆN TẠI.xlsx
+++ b/New folder/KL VẬT TƯ CHÍNH VÀ PHỤ HIỆN TẠI.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VBA Project\bketech\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vba\bketech\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB582DA-999D-40F9-8CD4-CA022315F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4083C304-CEE2-42E3-A27A-3675B920D3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng Hợp" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tổng Hợp'!$A$1:$AE$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -326,21 +329,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -348,7 +351,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -502,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,9 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1030,49 +1030,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B857913D-887E-4E1B-8394-2D544D6CBEF9}">
-  <dimension ref="A1:AE56"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.796875" style="4"/>
+    <col min="19" max="19" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1174,7 +1175,7 @@
       <c r="C2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="1">
         <v>316</v>
       </c>
       <c r="E2" s="7"/>
@@ -1209,7 +1210,7 @@
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1219,7 +1220,7 @@
       <c r="C3" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="1">
         <v>398</v>
       </c>
       <c r="E3" s="11"/>
@@ -1254,7 +1255,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1264,7 +1265,7 @@
       <c r="C4" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="1">
         <v>71</v>
       </c>
       <c r="E4" s="11"/>
@@ -1299,7 +1300,7 @@
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1309,7 +1310,7 @@
       <c r="C5" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="1">
         <v>70</v>
       </c>
       <c r="E5" s="13"/>
@@ -1344,7 +1345,7 @@
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1354,7 +1355,7 @@
       <c r="C6" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="1">
         <v>831</v>
       </c>
       <c r="E6" s="13">
@@ -1421,7 +1422,7 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1431,7 +1432,7 @@
       <c r="C7" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="1">
         <v>559</v>
       </c>
       <c r="E7" s="13">
@@ -1490,7 +1491,7 @@
       </c>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1500,7 +1501,7 @@
       <c r="C8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="1">
         <v>70</v>
       </c>
       <c r="E8" s="11">
@@ -1553,7 +1554,7 @@
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1563,7 +1564,7 @@
       <c r="C9" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="1">
         <v>69</v>
       </c>
       <c r="E9" s="11">
@@ -1618,7 +1619,7 @@
       </c>
       <c r="AE9" s="9"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1628,7 +1629,7 @@
       <c r="C10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="1">
         <v>29</v>
       </c>
       <c r="E10" s="11"/>
@@ -1663,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1673,7 +1674,7 @@
       <c r="C11" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="1">
         <v>20</v>
       </c>
       <c r="E11" s="11"/>
@@ -1708,7 +1709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1718,7 +1719,7 @@
       <c r="C12" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="11"/>
@@ -1749,7 +1750,7 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1759,7 +1760,7 @@
       <c r="C13" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="1">
         <v>17</v>
       </c>
       <c r="E13" s="11"/>
@@ -1794,7 +1795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1804,7 +1805,7 @@
       <c r="C14" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="1">
         <v>22</v>
       </c>
       <c r="E14" s="11"/>
@@ -1841,7 +1842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1851,7 +1852,7 @@
       <c r="C15" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="11"/>
@@ -1882,7 +1883,7 @@
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1892,7 +1893,7 @@
       <c r="C16" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="1">
         <v>8</v>
       </c>
       <c r="E16" s="11"/>
@@ -1925,7 +1926,7 @@
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1935,7 +1936,7 @@
       <c r="C17" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="11"/>
@@ -1968,7 +1969,7 @@
       <c r="AD17" s="9"/>
       <c r="AE17" s="9"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1978,7 +1979,7 @@
       <c r="C18" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="19"/>
@@ -2009,7 +2010,7 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2019,10 +2020,10 @@
       <c r="C19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2052,7 +2053,7 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>50</v>
@@ -2060,10 +2061,10 @@
       <c r="C20" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2091,7 +2092,7 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -2101,10 +2102,10 @@
       <c r="C21" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="1">
         <v>6</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2138,7 +2139,7 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -2148,10 +2149,10 @@
       <c r="C22" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2181,7 +2182,7 @@
       </c>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -2191,10 +2192,10 @@
       <c r="C23" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2228,7 +2229,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -2238,10 +2239,10 @@
       <c r="C24" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="1">
         <v>9</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2277,7 +2278,7 @@
       </c>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -2287,10 +2288,10 @@
       <c r="C25" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="1">
         <v>4</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2320,7 +2321,7 @@
       </c>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -2330,10 +2331,10 @@
       <c r="C26" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2363,7 +2364,7 @@
       </c>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -2373,10 +2374,10 @@
       <c r="C27" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2404,7 +2405,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -2414,10 +2415,10 @@
       <c r="C28" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2445,7 +2446,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -2455,10 +2456,10 @@
       <c r="C29" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2486,7 +2487,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -2496,10 +2497,10 @@
       <c r="C30" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="1">
         <v>126</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="22">
         <v>7</v>
       </c>
       <c r="F30" s="1">
@@ -2539,7 +2540,7 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -2549,10 +2550,10 @@
       <c r="C31" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="1">
         <v>118</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2598,7 +2599,7 @@
       </c>
       <c r="AE31" s="1"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -2608,10 +2609,10 @@
       <c r="C32" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="1">
         <v>25</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2643,7 +2644,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -2653,10 +2654,10 @@
       <c r="C33" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2684,7 +2685,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -2694,10 +2695,10 @@
       <c r="C34" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="1">
         <v>12</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="1">
         <v>12</v>
       </c>
@@ -2727,7 +2728,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -2737,10 +2738,10 @@
       <c r="C35" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="22"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2768,7 +2769,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -2778,10 +2779,10 @@
       <c r="C36" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2809,7 +2810,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -2819,10 +2820,10 @@
       <c r="C37" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2850,7 +2851,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -2860,10 +2861,10 @@
       <c r="C38" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="22"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2891,7 +2892,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -2901,10 +2902,10 @@
       <c r="C39" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2932,7 +2933,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -2942,10 +2943,10 @@
       <c r="C40" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="1">
         <v>26</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2977,7 +2978,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -2987,10 +2988,10 @@
       <c r="C41" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="1">
         <v>73</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3026,7 +3027,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -3036,10 +3037,10 @@
       <c r="C42" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="1">
         <v>50</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="22"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3071,7 +3072,7 @@
       </c>
       <c r="AE42" s="1"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -3081,10 +3082,10 @@
       <c r="C43" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="1">
         <v>17</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="22"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -3116,7 +3117,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -3126,10 +3127,10 @@
       <c r="C44" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="1">
         <v>48</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -3165,7 +3166,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -3175,10 +3176,10 @@
       <c r="C45" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="1">
         <v>57</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3216,7 +3217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -3226,10 +3227,10 @@
       <c r="C46" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="1">
         <v>0</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3257,7 +3258,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -3267,10 +3268,10 @@
       <c r="C47" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="1">
         <v>2</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -3302,7 +3303,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -3312,10 +3313,10 @@
       <c r="C48" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="1">
         <v>0</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -3343,7 +3344,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -3353,10 +3354,10 @@
       <c r="C49" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3386,7 +3387,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -3396,10 +3397,10 @@
       <c r="C50" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="1">
         <v>0</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3427,7 +3428,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -3437,10 +3438,10 @@
       <c r="C51" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="1">
         <v>0</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3468,7 +3469,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -3478,10 +3479,10 @@
       <c r="C52" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="1">
         <v>3</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="22"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3513,7 +3514,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -3523,10 +3524,10 @@
       <c r="C53" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="1">
         <v>0</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3554,7 +3555,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -3564,10 +3565,10 @@
       <c r="C54" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="1">
         <v>15</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3597,7 +3598,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -3640,49 +3641,22 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:AE1" xr:uid="{B857913D-887E-4E1B-8394-2D544D6CBEF9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:E36"/>
   <sheetViews>
     <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
